--- a/output/test_results.xlsx
+++ b/output/test_results.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="ROC_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>Compound</t>
   </si>
@@ -180,6 +181,30 @@
   </si>
   <si>
     <t>01_Blank_1</t>
+  </si>
+  <si>
+    <t>FPR_G_All</t>
+  </si>
+  <si>
+    <t>TPR_G_All</t>
+  </si>
+  <si>
+    <t>FPR_F_All</t>
+  </si>
+  <si>
+    <t>TPR_F_All</t>
+  </si>
+  <si>
+    <t>FPR_G_NB</t>
+  </si>
+  <si>
+    <t>TPR_G_NB</t>
+  </si>
+  <si>
+    <t>FPR_F_NB</t>
+  </si>
+  <si>
+    <t>TPR_F_NB</t>
   </si>
 </sst>
 </file>
@@ -252,9 +277,615 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ROC (with blanks)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Compound G</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ROC_Data!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ROC_Data!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1842105263157895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2894736842105263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3684210526315789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6842105263157895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Compound F</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ROC_Data!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ROC_Data!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07894736842105263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2894736842105263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6842105263157895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8947368421052632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8947368421052632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ROC (non-blanks only)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Compound G</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ROC_Data!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ROC_Data!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06451612903225806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2258064516129032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3548387096774194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6129032258064516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8387096774193549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Compound F</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ROC_Data!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ROC_Data!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08823529411764706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2647058823529412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3235294117647059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -262,37 +893,29 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>365772</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7629</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_results_roc_with_blanks.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="190500"/>
-          <a:ext cx="5852172" cy="4389129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -300,34 +923,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>365772</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>7629</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="test_results_roc_non_blanks.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="3619500"/>
-          <a:ext cx="5852172" cy="4389129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1666,4 +2281,313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.08823529411764706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.1842105263157895</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2368421052631579</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.2647058823529412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.3235294117647059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.7647058823529411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.8235294117647058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="C9">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D9">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="B10">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="C10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/test_results.xlsx
+++ b/output/test_results.xlsx
@@ -7,16 +7,43 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Compound G" sheetId="1" r:id="rId1"/>
-    <sheet name="Compound F" sheetId="2" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Compound_G" sheetId="2" r:id="rId2"/>
+    <sheet name="Compound_F" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Z-Value</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Min ROC Threshold</t>
+  </si>
+  <si>
+    <t>Max ROC Threshold</t>
+  </si>
+  <si>
+    <t>Compound G</t>
+  </si>
+  <si>
+    <t>Compound F</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
   <si>
     <t>Sample ID</t>
   </si>
@@ -31,7 +58,7 @@
     <t>Above Threshold</t>
   </si>
   <si>
-    <t>True Label</t>
+    <t>Classification</t>
   </si>
   <si>
     <t>01_Blank_2</t>
@@ -172,34 +199,16 @@
     <t>04_AnalytE25_11</t>
   </si>
   <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
     <t>01_Blank_1</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>Z Value</t>
-  </si>
-  <si>
-    <t>Threshold</t>
-  </si>
-  <si>
-    <t>AUC</t>
-  </si>
-  <si>
-    <t>Min ROC Threshold</t>
-  </si>
-  <si>
-    <t>Max ROC Threshold</t>
-  </si>
-  <si>
-    <t>Compound G</t>
-  </si>
-  <si>
-    <t>Compound F</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -270,6 +279,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_combined_roc_curve.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,32 +609,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1.1</v>
+      </c>
+      <c r="C2">
+        <v>187</v>
+      </c>
+      <c r="D2">
+        <v>0.9904306220095693</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1.1</v>
+      </c>
+      <c r="C3">
+        <v>180.4</v>
+      </c>
+      <c r="D3">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="E3">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -591,15 +717,15 @@
         <v>165</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -608,15 +734,15 @@
         <v>165</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -625,15 +751,15 @@
         <v>165</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -642,15 +768,15 @@
         <v>165</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -659,15 +785,15 @@
         <v>171</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -676,15 +802,15 @@
         <v>171</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -693,15 +819,15 @@
         <v>150</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -710,15 +836,15 @@
         <v>150</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -727,15 +853,15 @@
         <v>150</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -744,15 +870,15 @@
         <v>150</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -761,15 +887,15 @@
         <v>150</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -778,15 +904,15 @@
         <v>168</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -795,15 +921,15 @@
         <v>168</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -812,15 +938,15 @@
         <v>180</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -829,15 +955,15 @@
         <v>180</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -846,15 +972,15 @@
         <v>180</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -863,15 +989,15 @@
         <v>180</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -880,15 +1006,15 @@
         <v>180</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -897,15 +1023,15 @@
         <v>175</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -914,15 +1040,15 @@
         <v>175</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -931,15 +1057,15 @@
         <v>175</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -948,15 +1074,15 @@
         <v>175</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -965,15 +1091,15 @@
         <v>175</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -984,13 +1110,13 @@
       <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1001,13 +1127,13 @@
       <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1018,13 +1144,13 @@
       <c r="D27" t="b">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -1035,13 +1161,13 @@
       <c r="D28" t="b">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -1052,13 +1178,13 @@
       <c r="D29" t="b">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1069,13 +1195,13 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1086,13 +1212,13 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="E31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1103,13 +1229,13 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="E32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -1120,13 +1246,13 @@
       <c r="D33" t="b">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -1137,13 +1263,13 @@
       <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="E34">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -1154,13 +1280,13 @@
       <c r="D35" t="b">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="E35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1171,13 +1297,13 @@
       <c r="D36" t="b">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="E36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -1188,13 +1314,13 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -1205,13 +1331,13 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1222,13 +1348,13 @@
       <c r="D39" t="b">
         <v>1</v>
       </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>25</v>
@@ -1239,13 +1365,13 @@
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="E40">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>25</v>
@@ -1256,13 +1382,13 @@
       <c r="D41" t="b">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="E41" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>25</v>
@@ -1273,13 +1399,13 @@
       <c r="D42" t="b">
         <v>1</v>
       </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>25</v>
@@ -1290,13 +1416,13 @@
       <c r="D43" t="b">
         <v>1</v>
       </c>
-      <c r="E43">
-        <v>1</v>
+      <c r="E43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>25</v>
@@ -1307,13 +1433,13 @@
       <c r="D44" t="b">
         <v>1</v>
       </c>
-      <c r="E44">
-        <v>1</v>
+      <c r="E44" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -1324,13 +1450,13 @@
       <c r="D45" t="b">
         <v>1</v>
       </c>
-      <c r="E45">
-        <v>1</v>
+      <c r="E45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>25</v>
@@ -1341,13 +1467,13 @@
       <c r="D46" t="b">
         <v>1</v>
       </c>
-      <c r="E46">
-        <v>1</v>
+      <c r="E46" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>25</v>
@@ -1358,13 +1484,13 @@
       <c r="D47" t="b">
         <v>1</v>
       </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="E47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>25</v>
@@ -1375,13 +1501,13 @@
       <c r="D48" t="b">
         <v>1</v>
       </c>
-      <c r="E48">
-        <v>1</v>
+      <c r="E48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>25</v>
@@ -1392,13 +1518,13 @@
       <c r="D49" t="b">
         <v>1</v>
       </c>
-      <c r="E49">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -1409,8 +1535,8 @@
       <c r="D50" t="b">
         <v>1</v>
       </c>
-      <c r="E50">
-        <v>1</v>
+      <c r="E50" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
@@ -1428,24 +1554,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1454,15 +1580,15 @@
         <v>140</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1471,15 +1597,15 @@
         <v>140</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1488,15 +1614,15 @@
         <v>140</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1505,15 +1631,15 @@
         <v>140</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1522,15 +1648,15 @@
         <v>140</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1539,15 +1665,15 @@
         <v>150</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1556,15 +1682,15 @@
         <v>150</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1573,15 +1699,15 @@
         <v>150</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1590,15 +1716,15 @@
         <v>160</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1607,15 +1733,15 @@
         <v>160</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1624,15 +1750,15 @@
         <v>170</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1641,15 +1767,15 @@
         <v>170</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1658,15 +1784,15 @@
         <v>180</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1675,15 +1801,15 @@
         <v>180</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1692,15 +1818,15 @@
         <v>180</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1709,15 +1835,15 @@
         <v>180</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1726,15 +1852,15 @@
         <v>180</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1743,15 +1869,15 @@
         <v>180</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1760,15 +1886,15 @@
         <v>160</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -1777,15 +1903,15 @@
         <v>160</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1794,15 +1920,15 @@
         <v>160</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1811,15 +1937,15 @@
         <v>160</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1830,13 +1956,13 @@
       <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1847,13 +1973,13 @@
       <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1864,13 +1990,13 @@
       <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1881,13 +2007,13 @@
       <c r="D27" t="b">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1898,13 +2024,13 @@
       <c r="D28" t="b">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -1915,13 +2041,13 @@
       <c r="D29" t="b">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1932,13 +2058,13 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1949,13 +2075,13 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="E31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1966,13 +2092,13 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="E32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -1983,13 +2109,13 @@
       <c r="D33" t="b">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -2000,13 +2126,13 @@
       <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="E34">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -2017,13 +2143,13 @@
       <c r="D35" t="b">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="E35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -2034,13 +2160,13 @@
       <c r="D36" t="b">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="E36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -2051,13 +2177,13 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -2068,13 +2194,13 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -2085,13 +2211,13 @@
       <c r="D39" t="b">
         <v>1</v>
       </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -2102,13 +2228,13 @@
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="E40">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>25</v>
@@ -2119,13 +2245,13 @@
       <c r="D41" t="b">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="E41" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>25</v>
@@ -2136,13 +2262,13 @@
       <c r="D42" t="b">
         <v>1</v>
       </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>25</v>
@@ -2153,13 +2279,13 @@
       <c r="D43" t="b">
         <v>1</v>
       </c>
-      <c r="E43">
-        <v>1</v>
+      <c r="E43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>25</v>
@@ -2170,13 +2296,13 @@
       <c r="D44" t="b">
         <v>1</v>
       </c>
-      <c r="E44">
-        <v>1</v>
+      <c r="E44" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -2187,13 +2313,13 @@
       <c r="D45" t="b">
         <v>1</v>
       </c>
-      <c r="E45">
-        <v>1</v>
+      <c r="E45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>25</v>
@@ -2204,13 +2330,13 @@
       <c r="D46" t="b">
         <v>1</v>
       </c>
-      <c r="E46">
-        <v>1</v>
+      <c r="E46" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>25</v>
@@ -2221,13 +2347,13 @@
       <c r="D47" t="b">
         <v>1</v>
       </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="E47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>25</v>
@@ -2238,13 +2364,13 @@
       <c r="D48" t="b">
         <v>1</v>
       </c>
-      <c r="E48">
-        <v>1</v>
+      <c r="E48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>25</v>
@@ -2255,13 +2381,13 @@
       <c r="D49" t="b">
         <v>1</v>
       </c>
-      <c r="E49">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -2272,13 +2398,13 @@
       <c r="D50" t="b">
         <v>1</v>
       </c>
-      <c r="E50">
-        <v>1</v>
+      <c r="E50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>25</v>
@@ -2289,81 +2415,8 @@
       <c r="D51" t="b">
         <v>1</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>1.1</v>
-      </c>
-      <c r="C2">
-        <v>3.3</v>
-      </c>
-      <c r="D2">
-        <v>0.9904306220095693</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>1.1</v>
-      </c>
-      <c r="C3">
-        <v>3.19</v>
-      </c>
-      <c r="D3">
-        <v>0.9736842105263158</v>
-      </c>
-      <c r="E3">
-        <v>140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
+      <c r="E51" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
